--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H2">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I2">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J2">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N2">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P2">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q2">
-        <v>1.486938113633778</v>
+        <v>0.04961540057666666</v>
       </c>
       <c r="R2">
-        <v>13.382443022704</v>
+        <v>0.44653860519</v>
       </c>
       <c r="S2">
-        <v>0.001307533900438009</v>
+        <v>4.443166191349298E-05</v>
       </c>
       <c r="T2">
-        <v>0.001307533900438009</v>
+        <v>4.443166191349299E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H3">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I3">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J3">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P3">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q3">
-        <v>10.96223643711889</v>
+        <v>2.776325851313889</v>
       </c>
       <c r="R3">
-        <v>98.66012793407</v>
+        <v>24.986932661825</v>
       </c>
       <c r="S3">
-        <v>0.009639604792375344</v>
+        <v>0.002486259712781237</v>
       </c>
       <c r="T3">
-        <v>0.009639604792375345</v>
+        <v>0.002486259712781238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462393333333334</v>
+        <v>0.1636683333333333</v>
       </c>
       <c r="H4">
-        <v>1.938718</v>
+        <v>0.491005</v>
       </c>
       <c r="I4">
-        <v>0.03461850536298827</v>
+        <v>0.008639493057305454</v>
       </c>
       <c r="J4">
-        <v>0.03461850536298828</v>
+        <v>0.008639493057305455</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N4">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P4">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q4">
-        <v>26.91926939094467</v>
+        <v>6.821501368016667</v>
       </c>
       <c r="R4">
-        <v>242.273424518502</v>
+        <v>61.39351231215</v>
       </c>
       <c r="S4">
-        <v>0.02367136667017492</v>
+        <v>0.006108801682610724</v>
       </c>
       <c r="T4">
-        <v>0.02367136667017493</v>
+        <v>0.006108801682610725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>45.968478</v>
       </c>
       <c r="I5">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J5">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N5">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P5">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q5">
-        <v>35.25643335644266</v>
+        <v>4.645053410596</v>
       </c>
       <c r="R5">
-        <v>317.3079002079839</v>
+        <v>41.805480695364</v>
       </c>
       <c r="S5">
-        <v>0.03100262304086452</v>
+        <v>0.004159745569136445</v>
       </c>
       <c r="T5">
-        <v>0.03100262304086452</v>
+        <v>0.004159745569136446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>45.968478</v>
       </c>
       <c r="I6">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J6">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P6">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q6">
-        <v>259.9229617151633</v>
+        <v>259.9229617151634</v>
       </c>
       <c r="R6">
         <v>2339.30665543647</v>
       </c>
       <c r="S6">
-        <v>0.2285623596763431</v>
+        <v>0.2327666213363828</v>
       </c>
       <c r="T6">
-        <v>0.2285623596763431</v>
+        <v>0.2327666213363828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>45.968478</v>
       </c>
       <c r="I7">
-        <v>0.8208310864042158</v>
+        <v>0.808839719627903</v>
       </c>
       <c r="J7">
-        <v>0.8208310864042159</v>
+        <v>0.8088397196279031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N7">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P7">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q7">
-        <v>638.276346933238</v>
+        <v>638.63715351706</v>
       </c>
       <c r="R7">
-        <v>5744.487122399141</v>
+        <v>5747.73438165354</v>
       </c>
       <c r="S7">
-        <v>0.5612661036870081</v>
+        <v>0.5719133527223839</v>
       </c>
       <c r="T7">
-        <v>0.5612661036870082</v>
+        <v>0.571913352722384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H8">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J8">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.300909333333333</v>
+        <v>0.303146</v>
       </c>
       <c r="N8">
-        <v>6.902728</v>
+        <v>0.909438</v>
       </c>
       <c r="O8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700541</v>
       </c>
       <c r="P8">
-        <v>0.03776979643482627</v>
+        <v>0.005142855213700542</v>
       </c>
       <c r="Q8">
-        <v>6.208746134154667</v>
+        <v>1.048191359854667</v>
       </c>
       <c r="R8">
-        <v>55.878715207392</v>
+        <v>9.433722238692001</v>
       </c>
       <c r="S8">
-        <v>0.005459639493523736</v>
+        <v>0.0009386779826506027</v>
       </c>
       <c r="T8">
-        <v>0.005459639493523736</v>
+        <v>0.0009386779826506028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H9">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J9">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="P9">
-        <v>0.2784523679257784</v>
+        <v>0.2877784259203595</v>
       </c>
       <c r="Q9">
-        <v>45.77308394787333</v>
+        <v>58.65357803554556</v>
       </c>
       <c r="R9">
-        <v>411.95775553086</v>
+        <v>527.88220231991</v>
       </c>
       <c r="S9">
-        <v>0.04025040345705995</v>
+        <v>0.05252554487119539</v>
       </c>
       <c r="T9">
-        <v>0.04025040345705996</v>
+        <v>0.05252554487119539</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.698388</v>
+        <v>3.457711333333334</v>
       </c>
       <c r="H10">
-        <v>8.095164</v>
+        <v>10.373134</v>
       </c>
       <c r="I10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="J10">
-        <v>0.1445504082327959</v>
+        <v>0.1825207873147914</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.655263</v>
+        <v>41.67881</v>
       </c>
       <c r="N10">
-        <v>124.965789</v>
+        <v>125.03643</v>
       </c>
       <c r="O10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="P10">
-        <v>0.6837778356393953</v>
+        <v>0.7070787188659401</v>
       </c>
       <c r="Q10">
-        <v>112.402061816044</v>
+        <v>144.1132936968467</v>
       </c>
       <c r="R10">
-        <v>1011.618556344396</v>
+        <v>1297.01964327162</v>
       </c>
       <c r="S10">
-        <v>0.0988403652822122</v>
+        <v>0.1290565644609455</v>
       </c>
       <c r="T10">
-        <v>0.09884036528221223</v>
+        <v>0.1290565644609455</v>
       </c>
     </row>
   </sheetData>
